--- a/data/reference/glossary.xlsx
+++ b/data/reference/glossary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs-my.sharepoint.com/personal/craig_parylo2_nhs_net/Documents/Documents/Projects/talking_therapies/data/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_F25DC773A252ABDACC10485B515949AE5BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C15A2B6D-46E5-4139-BA6F-0A4717636256}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_F25DC773A252ABDACC10485B515949AE5BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E365D8B0-8EF1-45B9-BADC-EAAF287DA44D}"/>
   <bookViews>
-    <workbookView xWindow="22755" yWindow="1080" windowWidth="13605" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="960" windowWidth="12435" windowHeight="21705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>term</t>
   </si>
@@ -152,6 +152,18 @@
   </si>
   <si>
     <t>The HAI - Short Week is a self-report questionnaire designed to assess health-related anxiety over the past week. It consists of multiple-choice questions, each with four statements, allowing individuals to select the option that best describes their thoughts, worries, and behaviours related to health concerns. The HAI is commonly used in clinical settings to evaluate health anxiety severity and guide treatment decisions.</t>
+  </si>
+  <si>
+    <t>Caseness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caseness is the term used to describe a referral that scores highly enough on measures of depression and anxiety to be classed as a clinical case. It is measured by using the scores that are collected at IAPT care contacts; if a patient’s score is above the clinical / non-clinical cut off on either their anxiety score, their depression score, or both, then the referral is classed as a clinical case. </t>
+  </si>
+  <si>
+    <t>Finished course of treatment</t>
+  </si>
+  <si>
+    <t>A referral that has finished a course of treatment is one that has ended having had at least two attended treatment care contacts during the referral. Follow-up care contacts do not count; these should take place after the end of a course of treatment. All patients who have finished a course of treatment are eligible for assessment of outcome (recovery, reliable improvement, no reliable change, or reliable deterioration).</t>
   </si>
 </sst>
 </file>
@@ -220,8 +232,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0BC2D6C6-6297-4447-B3BC-8DDFA33E3ABF}" name="Table1" displayName="Table1" ref="A1:B21" totalsRowShown="0">
-  <autoFilter ref="A1:B21" xr:uid="{0BC2D6C6-6297-4447-B3BC-8DDFA33E3ABF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0BC2D6C6-6297-4447-B3BC-8DDFA33E3ABF}" name="Table1" displayName="Table1" ref="A1:B23" totalsRowShown="0">
+  <autoFilter ref="A1:B23" xr:uid="{0BC2D6C6-6297-4447-B3BC-8DDFA33E3ABF}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{EF2707A6-45ED-4D24-A921-85DF6639FBE9}" name="term" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0ACA9E31-5053-487B-AFBF-1ED6FE550D7F}" name="definition" dataDxfId="0"/>
@@ -493,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,6 +683,22 @@
       </c>
       <c r="B21" s="2" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
